--- a/ResultadoEleicoesDistritos/PORTO_AMARANTE.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_AMARANTE.xlsx
@@ -597,64 +597,64 @@
         <v>14994</v>
       </c>
       <c r="H2" t="n">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="I2" t="n">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="J2" t="n">
-        <v>6329</v>
+        <v>6162</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="M2" t="n">
         <v>101</v>
       </c>
       <c r="N2" t="n">
-        <v>1061</v>
+        <v>1086</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S2" t="n">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="T2" t="n">
-        <v>1077</v>
+        <v>1146</v>
       </c>
       <c r="U2" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="V2" t="n">
-        <v>9478</v>
+        <v>9488</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9568</v>
+        <v>9695</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
